--- a/results/region_genre_13_sports.xlsx
+++ b/results/region_genre_13_sports.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>217546.2629</v>
+        <v>119284.739</v>
       </c>
       <c r="G2" t="n">
         <v>0.001</v>
       </c>
       <c r="H2" t="n">
-        <v>179081.7033</v>
+        <v>32163.6949</v>
       </c>
       <c r="I2" t="n">
-        <v>256010.8226</v>
+        <v>206405.7831</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5729.392</v>
+        <v>-137654.6592</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>-32735.1677</v>
+        <v>-226959.5804</v>
       </c>
       <c r="I3" t="n">
-        <v>44193.9516</v>
+        <v>-48349.738</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>115686.1331</v>
+        <v>22996.0782</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>77221.5735</v>
+        <v>-65708.6005</v>
       </c>
       <c r="I4" t="n">
-        <v>154150.6928</v>
+        <v>111700.757</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-211816.8709</v>
+        <v>-256939.3982</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-250281.4306</v>
+        <v>-318435.8633</v>
       </c>
       <c r="I5" t="n">
-        <v>-173352.3113</v>
+        <v>-195442.9331</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-101860.1298</v>
+        <v>-96288.66069999999</v>
       </c>
       <c r="G6" t="n">
         <v>0.001</v>
       </c>
       <c r="H6" t="n">
-        <v>-140324.6894</v>
+        <v>-156910.1611</v>
       </c>
       <c r="I6" t="n">
-        <v>-63395.5701</v>
+        <v>-35667.1604</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>109956.7412</v>
+        <v>160650.7374</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>71492.18150000001</v>
+        <v>96930.5763</v>
       </c>
       <c r="I7" t="n">
-        <v>148421.3008</v>
+        <v>224370.8985</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
